--- a/doc/模型管理引擎-迭代计划-20180622.xlsx
+++ b/doc/模型管理引擎-迭代计划-20180622.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6C98CD6F-E527-416F-A71E-F7F34F41AD4B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B0B848F8-5EEB-46A5-8AE6-57BB85C60FD1}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="88">
   <si>
     <t>模块</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -351,6 +351,22 @@
   </si>
   <si>
     <t>服务地址：52.83.182.209（aws），端口：7321，api访问地址：http://52.83.182.209:7321/swagger/（互联网）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取任务的所有步骤计算结果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/models/tasks/result/v1/{taskCode}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取任务指定步骤的计算结果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/models/tasks/result/v1/{taskCode}/{ruleStepId}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1330,10 +1346,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFF2EB03-0F86-48BB-A733-1BD9DB0EB9E7}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1573,12 +1589,36 @@
         <v>73</v>
       </c>
     </row>
+    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A21" s="39"/>
+      <c r="B21" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A22" s="39"/>
+      <c r="B22" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="A8:A14"/>
-    <mergeCell ref="A15:A20"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A15:A22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/模型管理引擎-迭代计划-20180622.xlsx
+++ b/doc/模型管理引擎-迭代计划-20180622.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B0B848F8-5EEB-46A5-8AE6-57BB85C60FD1}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F60F7F3E-B68B-4E20-97BB-717FF6E1ED42}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>模块</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -367,6 +367,22 @@
   </si>
   <si>
     <t>api/models/tasks/result/v1/{taskCode}/{ruleStepId}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布模型和取消模型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/models/publish/v1/{modelCode}/{isPublish}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/models/rulesteptypes/v1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取所有的规则步骤类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1346,10 +1362,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFF2EB03-0F86-48BB-A733-1BD9DB0EB9E7}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1613,12 +1629,36 @@
         <v>42</v>
       </c>
     </row>
+    <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A23" s="39"/>
+      <c r="B23" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A24" s="39"/>
+      <c r="B24" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="A8:A14"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A15:A22"/>
+    <mergeCell ref="A15:A24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/模型管理引擎-迭代计划-20180622.xlsx
+++ b/doc/模型管理引擎-迭代计划-20180622.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F60F7F3E-B68B-4E20-97BB-717FF6E1ED42}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7B874C4A-6910-4B23-B7E7-2B3E4D865883}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="产品计划" sheetId="1" r:id="rId1"/>
     <sheet name="API" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -370,10 +370,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>发布模型和取消模型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>api/models/publish/v1/{modelCode}/{isPublish}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -383,6 +379,10 @@
   </si>
   <si>
     <t>获取所有的规则步骤类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布模型和取消发布模型</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1365,7 +1365,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1632,10 +1632,10 @@
     <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A23" s="39"/>
       <c r="B23" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="20" t="s">
         <v>88</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>89</v>
       </c>
       <c r="D23" s="20" t="s">
         <v>42</v>
@@ -1644,10 +1644,10 @@
     <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A24" s="39"/>
       <c r="B24" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D24" s="20" t="s">
         <v>42</v>
